--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/projets/support/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21ADDB5D-49B1-884E-85A4-08841FD69208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982E70D7-3B5A-D246-9AEA-48E20AFDADCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1580" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
+    <workbookView xWindow="3000" yWindow="1580" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
   <sheets>
     <sheet name="modele" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -97,93 +97,45 @@
     <t>Formation PowerAutomate</t>
   </si>
   <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
     <t>2024-01-22</t>
   </si>
   <si>
-    <t>2024-01-25</t>
-  </si>
-  <si>
     <t>2024-01-29</t>
   </si>
   <si>
-    <t>2024-02-01</t>
-  </si>
-  <si>
     <t>2024-02-05</t>
   </si>
   <si>
-    <t>2024-02-08</t>
-  </si>
-  <si>
     <t>2024-02-12</t>
   </si>
   <si>
-    <t>2024-02-15</t>
-  </si>
-  <si>
     <t>2024-02-19</t>
   </si>
   <si>
-    <t>2024-02-22</t>
-  </si>
-  <si>
     <t>2024-02-26</t>
   </si>
   <si>
-    <t>2024-02-29</t>
-  </si>
-  <si>
-    <t>2024-03-04</t>
-  </si>
-  <si>
-    <t>2024-03-07</t>
-  </si>
-  <si>
     <t>2024-03-11</t>
   </si>
   <si>
-    <t>2024-03-14</t>
-  </si>
-  <si>
     <t>2024-03-18</t>
   </si>
   <si>
-    <t>2024-03-21</t>
-  </si>
-  <si>
     <t>2024-03-25</t>
   </si>
   <si>
-    <t>2024-03-28</t>
-  </si>
-  <si>
-    <t>2024-04-01</t>
-  </si>
-  <si>
     <t>2024-04-04</t>
   </si>
   <si>
     <t>2024-04-08</t>
   </si>
   <si>
-    <t>2024-04-11</t>
-  </si>
-  <si>
     <t>2024-04-15</t>
   </si>
   <si>
-    <t>2024-04-18</t>
-  </si>
-  <si>
     <t>2024-04-22</t>
   </si>
   <si>
-    <t>2024-04-25</t>
-  </si>
-  <si>
     <t>2024-04-29</t>
   </si>
   <si>
@@ -208,101 +160,59 @@
     <t>[défis du support](defis.md)</t>
   </si>
   <si>
-    <t>2024-01-17</t>
-  </si>
-  <si>
     <t>2024-01-19</t>
   </si>
   <si>
-    <t>2024-01-24</t>
-  </si>
-  <si>
     <t>2024-01-26</t>
   </si>
   <si>
-    <t>2024-01-31</t>
-  </si>
-  <si>
     <t>2024-02-02</t>
   </si>
   <si>
-    <t>2024-02-07</t>
-  </si>
-  <si>
     <t>2024-02-09</t>
   </si>
   <si>
-    <t>2024-02-14</t>
-  </si>
-  <si>
     <t>2024-02-16</t>
   </si>
   <si>
-    <t>2024-02-21</t>
-  </si>
-  <si>
     <t>2024-02-23</t>
   </si>
   <si>
-    <t>2024-02-28</t>
-  </si>
-  <si>
     <t>2024-03-01</t>
   </si>
   <si>
-    <t>2024-03-06</t>
-  </si>
-  <si>
-    <t>2024-03-08</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
     <t>2024-03-15</t>
   </si>
   <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
     <t>2024-03-22</t>
   </si>
   <si>
-    <t>2024-03-27</t>
-  </si>
-  <si>
-    <t>2024-03-29</t>
-  </si>
-  <si>
-    <t>2024-04-03</t>
-  </si>
-  <si>
     <t>2024-04-05</t>
   </si>
   <si>
-    <t>2024-04-10</t>
-  </si>
-  <si>
     <t>2024-04-12</t>
   </si>
   <si>
-    <t>2024-04-17</t>
-  </si>
-  <si>
-    <t>2024-04-19</t>
-  </si>
-  <si>
-    <t>2024-04-24</t>
-  </si>
-  <si>
     <t>2024-04-26</t>
+  </si>
+  <si>
+    <t>2024-05-03</t>
+  </si>
+  <si>
+    <t>2024-05-06</t>
+  </si>
+  <si>
+    <t>2024-05-10</t>
+  </si>
+  <si>
+    <t>2024-05-13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -310,29 +220,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
-        <bgColor rgb="FFDCE6F1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -344,20 +241,33 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF95B3D7"/>
+        <color theme="7"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF95B3D7"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
       <top style="thin">
-        <color theme="7"/>
+        <color theme="5"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -367,12 +277,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,13 +635,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -742,13 +652,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -759,13 +669,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -776,13 +686,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -793,10 +703,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -810,10 +720,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -827,13 +737,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -844,13 +754,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -861,13 +771,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -878,13 +788,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -895,13 +805,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -912,13 +822,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -929,10 +839,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -946,13 +856,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -963,13 +873,13 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -980,13 +890,13 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -997,13 +907,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1014,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1031,10 +941,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
@@ -1048,10 +958,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1065,10 +975,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1082,10 +992,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>3</v>
@@ -1099,13 +1009,13 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1116,13 +1026,13 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1133,13 +1043,13 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1150,13 +1060,13 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1170,10 +1080,10 @@
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1184,10 +1094,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>6</v>
@@ -1201,10 +1111,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -1218,10 +1128,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -1236,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10D1181-B3CD-EE43-9E3F-518A899CAD6B}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1275,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>modele!C2</f>
@@ -1298,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>modele!C3</f>
@@ -1321,7 +1231,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>modele!C4</f>
@@ -1344,7 +1254,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>modele!C5</f>
@@ -1367,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>modele!C6</f>
@@ -1390,7 +1300,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>modele!C7</f>
@@ -1413,7 +1323,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>modele!C8</f>
@@ -1436,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>modele!C9</f>
@@ -1459,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>modele!C10</f>
@@ -1482,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>modele!C11</f>
@@ -1505,7 +1415,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>modele!C12</f>
@@ -1528,7 +1438,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>modele!C13</f>
@@ -1551,7 +1461,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>modele!C14</f>
@@ -1574,7 +1484,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="str">
         <f>modele!C15</f>
@@ -1597,7 +1507,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>modele!C16</f>
@@ -1620,7 +1530,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="str">
         <f>modele!C17</f>
@@ -1643,7 +1553,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>modele!C18</f>
@@ -1666,7 +1576,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="str">
         <f>modele!C19</f>
@@ -1689,7 +1599,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="str">
         <f>modele!C20</f>
@@ -1712,7 +1622,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="D21" s="2" t="str">
         <f>modele!C21</f>
@@ -1735,7 +1645,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2" t="str">
         <f>modele!C22</f>
@@ -1758,7 +1668,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D23" s="2" t="str">
         <f>modele!C23</f>
@@ -1781,7 +1691,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2" t="str">
         <f>modele!C24</f>
@@ -1804,7 +1714,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2" t="str">
         <f>modele!C25</f>
@@ -1827,7 +1737,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>modele!C26</f>
@@ -1850,7 +1760,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2" t="str">
         <f>modele!C27</f>
@@ -1873,7 +1783,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D28" s="2" t="str">
         <f>modele!C28</f>
@@ -1896,7 +1806,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D29" s="2" t="str">
         <f>modele!C29</f>
@@ -1919,7 +1829,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="D30" s="2" t="str">
         <f>modele!C30</f>
@@ -1942,7 +1852,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D31" s="2" t="str">
         <f>modele!C31</f>
@@ -1966,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08FFC77-5335-F243-9422-11C9052373E6}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1998,7 +1908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="272" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2006,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>modele!C2</f>
@@ -2028,8 +1938,8 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>modele!C3</f>
@@ -2052,7 +1962,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>modele!C4</f>
@@ -2074,8 +1984,8 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>modele!C5</f>
@@ -2098,7 +2008,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>modele!C6</f>
@@ -2120,8 +2030,8 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>modele!C7</f>
@@ -2136,7 +2046,7 @@
         <v>Comment chiffrer un courriel dans Outlook</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2144,7 +2054,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>modele!C8</f>
@@ -2166,8 +2076,8 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>modele!C9</f>
@@ -2190,7 +2100,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>modele!C10</f>
@@ -2212,8 +2122,8 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>28</v>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>modele!C11</f>
@@ -2236,7 +2146,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>modele!C12</f>
@@ -2258,8 +2168,8 @@
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>30</v>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>modele!C13</f>
@@ -2282,7 +2192,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>modele!C14</f>
@@ -2304,8 +2214,8 @@
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>32</v>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="str">
         <f>modele!C15</f>
@@ -2328,7 +2238,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>modele!C16</f>
@@ -2350,8 +2260,8 @@
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>34</v>
+      <c r="C17" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="str">
         <f>modele!C17</f>
@@ -2374,7 +2284,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>modele!C18</f>
@@ -2396,8 +2306,8 @@
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>36</v>
+      <c r="C19" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="str">
         <f>modele!C19</f>
@@ -2420,7 +2330,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="str">
         <f>modele!C20</f>
@@ -2442,8 +2352,8 @@
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>38</v>
+      <c r="C21" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="D21" s="2" t="str">
         <f>modele!C21</f>
@@ -2466,7 +2376,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2" t="str">
         <f>modele!C22</f>
@@ -2488,8 +2398,8 @@
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>40</v>
+      <c r="C23" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="D23" s="2" t="str">
         <f>modele!C23</f>
@@ -2512,7 +2422,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2" t="str">
         <f>modele!C24</f>
@@ -2534,8 +2444,8 @@
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>42</v>
+      <c r="C25" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="D25" s="2" t="str">
         <f>modele!C25</f>
@@ -2558,7 +2468,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>modele!C26</f>
@@ -2580,8 +2490,8 @@
       <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>44</v>
+      <c r="C27" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D27" s="2" t="str">
         <f>modele!C27</f>
@@ -2604,7 +2514,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D28" s="2" t="str">
         <f>modele!C28</f>
@@ -2626,8 +2536,8 @@
       <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>46</v>
+      <c r="C29" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D29" s="2" t="str">
         <f>modele!C29</f>
@@ -2650,7 +2560,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D30" s="2" t="str">
         <f>modele!C30</f>
@@ -2673,7 +2583,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D31" s="2" t="str">
         <f>modele!C31</f>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/projets/support/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notescours/support/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982E70D7-3B5A-D246-9AEA-48E20AFDADCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC324898-A498-384F-9783-D41F09EDFA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1580" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
+    <workbookView xWindow="3000" yWindow="1580" windowWidth="27240" windowHeight="16440" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
   <sheets>
     <sheet name="modele" sheetId="3" r:id="rId1"/>
@@ -274,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -283,6 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -301,9 +302,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -341,7 +342,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -447,7 +448,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -589,7 +590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -599,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F171512-FA2B-6E4F-9860-0C907C2F4F1F}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,11 +927,11 @@
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="s">
-        <v>17</v>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -947,7 +948,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -978,10 +979,10 @@
         <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1147,7 +1148,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1584,11 +1585,11 @@
       </c>
       <c r="E19" s="2" t="str">
         <f>modele!D19</f>
-        <v>Excel</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F19" s="2" t="str">
         <f>modele!E19</f>
-        <v xml:space="preserve"> </v>
+        <v>Formation PowerAutomate</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1611,7 +1612,7 @@
       </c>
       <c r="F20" s="2" t="str">
         <f>modele!E20</f>
-        <v>Formation PowerAutomate</v>
+        <v>Simulation de formation (individuel)</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1653,11 +1654,11 @@
       </c>
       <c r="E22" s="2" t="str">
         <f>modele!D22</f>
-        <v xml:space="preserve"> </v>
+        <v>Excel</v>
       </c>
       <c r="F22" s="2" t="str">
         <f>modele!E22</f>
-        <v>Simulation de formation (individuel)</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1876,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08FFC77-5335-F243-9422-11C9052373E6}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2315,11 +2316,11 @@
       </c>
       <c r="E19" s="2" t="str">
         <f>modele!D19</f>
-        <v>Excel</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F19" s="2" t="str">
         <f>modele!E19</f>
-        <v xml:space="preserve"> </v>
+        <v>Formation PowerAutomate</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2342,7 +2343,7 @@
       </c>
       <c r="F20" s="2" t="str">
         <f>modele!E20</f>
-        <v>Formation PowerAutomate</v>
+        <v>Simulation de formation (individuel)</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2384,11 +2385,11 @@
       </c>
       <c r="E22" s="2" t="str">
         <f>modele!D22</f>
-        <v xml:space="preserve"> </v>
+        <v>Excel</v>
       </c>
       <c r="F22" s="2" t="str">
         <f>modele!E22</f>
-        <v>Simulation de formation (individuel)</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notescours/support/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC324898-A498-384F-9783-D41F09EDFA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87461B7D-E423-3449-B5BE-177D68F2E39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1580" windowWidth="27240" windowHeight="16440" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
+    <workbookView xWindow="3000" yWindow="1580" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
   <sheets>
     <sheet name="modele" sheetId="3" r:id="rId1"/>
@@ -600,7 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F171512-FA2B-6E4F-9860-0C907C2F4F1F}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10D1181-B3CD-EE43-9E3F-518A899CAD6B}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1699,8 +1699,8 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E24" s="2" t="str">
-        <f>modele!D24</f>
-        <v>PowerApps</v>
+        <f>modele!D22</f>
+        <v>Excel</v>
       </c>
       <c r="F24" s="2" t="str">
         <f>modele!E24</f>
@@ -1722,7 +1722,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E25" s="2" t="str">
-        <f>modele!D25</f>
+        <f>modele!D24</f>
         <v>PowerApps</v>
       </c>
       <c r="F25" s="2" t="str">
@@ -1745,8 +1745,8 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E26" s="2" t="str">
-        <f>modele!D26</f>
-        <v>Excel</v>
+        <f>modele!D25</f>
+        <v>PowerApps</v>
       </c>
       <c r="F26" s="2" t="str">
         <f>modele!E26</f>
@@ -1877,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08FFC77-5335-F243-9422-11C9052373E6}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2430,8 +2430,8 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E24" s="2" t="str">
-        <f>modele!D24</f>
-        <v>PowerApps</v>
+        <f>modele!D22</f>
+        <v>Excel</v>
       </c>
       <c r="F24" s="2" t="str">
         <f>modele!E24</f>
@@ -2453,7 +2453,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E25" s="2" t="str">
-        <f>modele!D25</f>
+        <f>modele!D24</f>
         <v>PowerApps</v>
       </c>
       <c r="F25" s="2" t="str">
@@ -2476,8 +2476,8 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E26" s="2" t="str">
-        <f>modele!D26</f>
-        <v>Excel</v>
+        <f>modele!D25</f>
+        <v>PowerApps</v>
       </c>
       <c r="F26" s="2" t="str">
         <f>modele!E26</f>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notescours/support/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/support/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87461B7D-E423-3449-B5BE-177D68F2E39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7E6AAC-ED42-2C49-8054-A68248FDF20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1580" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
+    <workbookView xWindow="3000" yWindow="1580" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
   <sheets>
     <sheet name="modele" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -97,48 +97,6 @@
     <t>Formation PowerAutomate</t>
   </si>
   <si>
-    <t>2024-01-22</t>
-  </si>
-  <si>
-    <t>2024-01-29</t>
-  </si>
-  <si>
-    <t>2024-02-05</t>
-  </si>
-  <si>
-    <t>2024-02-12</t>
-  </si>
-  <si>
-    <t>2024-02-19</t>
-  </si>
-  <si>
-    <t>2024-02-26</t>
-  </si>
-  <si>
-    <t>2024-03-11</t>
-  </si>
-  <si>
-    <t>2024-03-18</t>
-  </si>
-  <si>
-    <t>2024-03-25</t>
-  </si>
-  <si>
-    <t>2024-04-04</t>
-  </si>
-  <si>
-    <t>2024-04-08</t>
-  </si>
-  <si>
-    <t>2024-04-15</t>
-  </si>
-  <si>
-    <t>2024-04-22</t>
-  </si>
-  <si>
-    <t>2024-04-29</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -160,52 +118,184 @@
     <t>[défis du support](defis.md)</t>
   </si>
   <si>
-    <t>2024-01-19</t>
-  </si>
-  <si>
-    <t>2024-01-26</t>
-  </si>
-  <si>
-    <t>2024-02-02</t>
-  </si>
-  <si>
-    <t>2024-02-09</t>
-  </si>
-  <si>
-    <t>2024-02-16</t>
-  </si>
-  <si>
-    <t>2024-02-23</t>
-  </si>
-  <si>
-    <t>2024-03-01</t>
-  </si>
-  <si>
-    <t>2024-03-15</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>2024-04-05</t>
-  </si>
-  <si>
-    <t>2024-04-12</t>
-  </si>
-  <si>
-    <t>2024-04-26</t>
-  </si>
-  <si>
-    <t>2024-05-03</t>
-  </si>
-  <si>
-    <t>2024-05-06</t>
-  </si>
-  <si>
-    <t>2024-05-10</t>
-  </si>
-  <si>
-    <t>2024-05-13</t>
+    <t>2025-01-20 08:15</t>
+  </si>
+  <si>
+    <t>2025-01-22 14:15</t>
+  </si>
+  <si>
+    <t>2025-01-27 08:15</t>
+  </si>
+  <si>
+    <t>2025-01-29 14:15</t>
+  </si>
+  <si>
+    <t>2025-02-03 08:15</t>
+  </si>
+  <si>
+    <t>2025-02-05 14:15</t>
+  </si>
+  <si>
+    <t>2025-02-10 08:15</t>
+  </si>
+  <si>
+    <t>2025-02-12 14:15</t>
+  </si>
+  <si>
+    <t>2025-02-17 08:15</t>
+  </si>
+  <si>
+    <t>2025-02-19 14:15</t>
+  </si>
+  <si>
+    <t>2025-02-24 08:15</t>
+  </si>
+  <si>
+    <t>2025-02-26 14:15</t>
+  </si>
+  <si>
+    <t>2025-03-10 08:15</t>
+  </si>
+  <si>
+    <t>2025-03-12 14:15</t>
+  </si>
+  <si>
+    <t>2025-03-17 08:15</t>
+  </si>
+  <si>
+    <t>2025-03-19 14:15</t>
+  </si>
+  <si>
+    <t>2025-03-24 08:15</t>
+  </si>
+  <si>
+    <t>2025-03-26 14:15</t>
+  </si>
+  <si>
+    <t>2025-03-31 08:15</t>
+  </si>
+  <si>
+    <t>2025-04-02 14:15</t>
+  </si>
+  <si>
+    <t>2025-04-07 08:15</t>
+  </si>
+  <si>
+    <t>2025-04-09 14:15</t>
+  </si>
+  <si>
+    <t>2025-04-14 08:15</t>
+  </si>
+  <si>
+    <t>2025-04-16 14:15</t>
+  </si>
+  <si>
+    <t>2025-04-23 14:15</t>
+  </si>
+  <si>
+    <t>2025-04-28 08:15</t>
+  </si>
+  <si>
+    <t>2025-04-30 14:15</t>
+  </si>
+  <si>
+    <t>2025-05-05 08:15</t>
+  </si>
+  <si>
+    <t>2025-05-07 14:15</t>
+  </si>
+  <si>
+    <t>2025-05-12 08:15</t>
+  </si>
+  <si>
+    <t>2025-01-20 10:15</t>
+  </si>
+  <si>
+    <t>2025-01-22 12:15</t>
+  </si>
+  <si>
+    <t>2025-01-27 10:15</t>
+  </si>
+  <si>
+    <t>2025-01-29 12:15</t>
+  </si>
+  <si>
+    <t>2025-02-03 10:15</t>
+  </si>
+  <si>
+    <t>2025-02-05 12:15</t>
+  </si>
+  <si>
+    <t>2025-02-10 10:15</t>
+  </si>
+  <si>
+    <t>2025-02-12 12:15</t>
+  </si>
+  <si>
+    <t>2025-02-17 10:15</t>
+  </si>
+  <si>
+    <t>2025-02-19 12:15</t>
+  </si>
+  <si>
+    <t>2025-02-24 10:15</t>
+  </si>
+  <si>
+    <t>2025-02-26 12:15</t>
+  </si>
+  <si>
+    <t>2025-03-10 10:15</t>
+  </si>
+  <si>
+    <t>2025-03-12 12:15</t>
+  </si>
+  <si>
+    <t>2025-03-17 10:15</t>
+  </si>
+  <si>
+    <t>2025-03-19 12:15</t>
+  </si>
+  <si>
+    <t>2025-03-24 10:15</t>
+  </si>
+  <si>
+    <t>2025-03-26 12:15</t>
+  </si>
+  <si>
+    <t>2025-03-31 10:15</t>
+  </si>
+  <si>
+    <t>2025-04-02 12:15</t>
+  </si>
+  <si>
+    <t>2025-04-07 10:15</t>
+  </si>
+  <si>
+    <t>2025-04-09 12:15</t>
+  </si>
+  <si>
+    <t>2025-04-14 10:15</t>
+  </si>
+  <si>
+    <t>2025-04-16 12:15</t>
+  </si>
+  <si>
+    <t>2025-04-23 12:15</t>
+  </si>
+  <si>
+    <t>2025-04-28 10:15</t>
+  </si>
+  <si>
+    <t>2025-04-30 12:15</t>
+  </si>
+  <si>
+    <t>2025-05-05 10:15</t>
+  </si>
+  <si>
+    <t>2025-05-07 12:15</t>
+  </si>
+  <si>
+    <t>2025-05-12 10:15</t>
   </si>
 </sst>
 </file>
@@ -229,7 +319,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -246,44 +336,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="5"/>
-      </right>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="5"/>
-      </right>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
-      <bottom style="thin">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,13 +701,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -653,13 +718,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -670,13 +735,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -687,13 +752,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -704,10 +769,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -721,10 +786,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -738,13 +803,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -755,13 +820,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -772,13 +837,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -789,13 +854,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -806,13 +871,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -823,13 +888,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -840,10 +905,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -857,13 +922,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -874,13 +939,13 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -891,13 +956,13 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -908,13 +973,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -925,10 +990,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>18</v>
@@ -942,10 +1007,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
@@ -959,10 +1024,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -976,13 +1041,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>33</v>
+      <c r="E22" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -993,10 +1058,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>3</v>
@@ -1010,13 +1075,13 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1027,13 +1092,13 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1044,13 +1109,13 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1061,13 +1126,13 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1081,10 +1146,10 @@
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1095,10 +1160,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>6</v>
@@ -1112,10 +1177,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -1129,10 +1194,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -1147,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10D1181-B3CD-EE43-9E3F-518A899CAD6B}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1185,8 +1250,8 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>40</v>
+      <c r="C2" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>modele!C2</f>
@@ -1208,8 +1273,8 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
+      <c r="C3" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>modele!C3</f>
@@ -1231,8 +1296,8 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>41</v>
+      <c r="C4" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>modele!C4</f>
@@ -1254,8 +1319,8 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
+      <c r="C5" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>modele!C5</f>
@@ -1277,8 +1342,8 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>42</v>
+      <c r="C6" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>modele!C6</f>
@@ -1300,8 +1365,8 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
+      <c r="C7" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>modele!C7</f>
@@ -1323,8 +1388,8 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>43</v>
+      <c r="C8" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>modele!C8</f>
@@ -1346,8 +1411,8 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
+      <c r="C9" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>modele!C9</f>
@@ -1369,8 +1434,8 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>44</v>
+      <c r="C10" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>modele!C10</f>
@@ -1392,8 +1457,8 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
+      <c r="C11" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>modele!C11</f>
@@ -1415,8 +1480,8 @@
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>45</v>
+      <c r="C12" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>modele!C12</f>
@@ -1438,8 +1503,8 @@
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
+      <c r="C13" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>modele!C13</f>
@@ -1461,8 +1526,8 @@
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>46</v>
+      <c r="C14" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>modele!C14</f>
@@ -1484,8 +1549,8 @@
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
+      <c r="C15" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="str">
         <f>modele!C15</f>
@@ -1507,8 +1572,8 @@
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>47</v>
+      <c r="C16" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>modele!C16</f>
@@ -1530,8 +1595,8 @@
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>26</v>
+      <c r="C17" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="str">
         <f>modele!C17</f>
@@ -1553,8 +1618,8 @@
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>48</v>
+      <c r="C18" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>modele!C18</f>
@@ -1576,8 +1641,8 @@
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>27</v>
+      <c r="C19" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D19" s="2" t="str">
         <f>modele!C19</f>
@@ -1599,8 +1664,8 @@
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
-        <v>28</v>
+      <c r="C20" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="D20" s="2" t="str">
         <f>modele!C20</f>
@@ -1622,8 +1687,8 @@
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>49</v>
+      <c r="C21" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D21" s="2" t="str">
         <f>modele!C21</f>
@@ -1645,8 +1710,8 @@
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>29</v>
+      <c r="C22" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D22" s="2" t="str">
         <f>modele!C22</f>
@@ -1668,8 +1733,8 @@
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
-        <v>50</v>
+      <c r="C23" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D23" s="2" t="str">
         <f>modele!C23</f>
@@ -1691,8 +1756,8 @@
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>30</v>
+      <c r="C24" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="D24" s="2" t="str">
         <f>modele!C24</f>
@@ -1714,8 +1779,8 @@
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>31</v>
+      <c r="C25" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="D25" s="2" t="str">
         <f>modele!C25</f>
@@ -1737,8 +1802,8 @@
       <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>51</v>
+      <c r="C26" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>modele!C26</f>
@@ -1760,8 +1825,8 @@
       <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
-        <v>32</v>
+      <c r="C27" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D27" s="2" t="str">
         <f>modele!C27</f>
@@ -1783,8 +1848,8 @@
       <c r="B28">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
-        <v>52</v>
+      <c r="C28" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D28" s="2" t="str">
         <f>modele!C28</f>
@@ -1806,8 +1871,8 @@
       <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
-        <v>53</v>
+      <c r="C29" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D29" s="2" t="str">
         <f>modele!C29</f>
@@ -1829,8 +1894,8 @@
       <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
-        <v>54</v>
+      <c r="C30" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="D30" s="2" t="str">
         <f>modele!C30</f>
@@ -1852,8 +1917,8 @@
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
-        <v>55</v>
+      <c r="C31" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D31" s="2" t="str">
         <f>modele!C31</f>
@@ -1877,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08FFC77-5335-F243-9422-11C9052373E6}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1916,8 +1981,8 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>40</v>
+      <c r="C2" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>modele!C2</f>
@@ -1939,8 +2004,8 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>modele!C3</f>
@@ -1962,8 +2027,8 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>41</v>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>modele!C4</f>
@@ -1985,8 +2050,8 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
+      <c r="C5" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>modele!C5</f>
@@ -2008,8 +2073,8 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>42</v>
+      <c r="C6" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>modele!C6</f>
@@ -2031,8 +2096,8 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
+      <c r="C7" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>modele!C7</f>
@@ -2054,8 +2119,8 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>43</v>
+      <c r="C8" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>modele!C8</f>
@@ -2077,8 +2142,8 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
+      <c r="C9" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>modele!C9</f>
@@ -2100,8 +2165,8 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>44</v>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>modele!C10</f>
@@ -2123,8 +2188,8 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>modele!C11</f>
@@ -2146,8 +2211,8 @@
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>45</v>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>modele!C12</f>
@@ -2169,8 +2234,8 @@
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>modele!C13</f>
@@ -2192,8 +2257,8 @@
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>46</v>
+      <c r="C14" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>modele!C14</f>
@@ -2215,8 +2280,8 @@
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>25</v>
+      <c r="C15" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="str">
         <f>modele!C15</f>
@@ -2238,8 +2303,8 @@
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>47</v>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>modele!C16</f>
@@ -2261,8 +2326,8 @@
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>26</v>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D17" s="2" t="str">
         <f>modele!C17</f>
@@ -2284,8 +2349,8 @@
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>48</v>
+      <c r="C18" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>modele!C18</f>
@@ -2307,8 +2372,8 @@
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>27</v>
+      <c r="C19" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D19" s="2" t="str">
         <f>modele!C19</f>
@@ -2330,8 +2395,8 @@
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>28</v>
+      <c r="C20" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D20" s="2" t="str">
         <f>modele!C20</f>
@@ -2353,8 +2418,8 @@
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>49</v>
+      <c r="C21" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D21" s="2" t="str">
         <f>modele!C21</f>
@@ -2376,8 +2441,8 @@
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>29</v>
+      <c r="C22" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="D22" s="2" t="str">
         <f>modele!C22</f>
@@ -2399,8 +2464,8 @@
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>50</v>
+      <c r="C23" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D23" s="2" t="str">
         <f>modele!C23</f>
@@ -2422,8 +2487,8 @@
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>30</v>
+      <c r="C24" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D24" s="2" t="str">
         <f>modele!C24</f>
@@ -2445,8 +2510,8 @@
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>31</v>
+      <c r="C25" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D25" s="2" t="str">
         <f>modele!C25</f>
@@ -2468,8 +2533,8 @@
       <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>51</v>
+      <c r="C26" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>modele!C26</f>
@@ -2491,8 +2556,8 @@
       <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>32</v>
+      <c r="C27" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="D27" s="2" t="str">
         <f>modele!C27</f>
@@ -2514,7 +2579,7 @@
       <c r="B28">
         <v>27</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="2" t="str">
@@ -2537,7 +2602,7 @@
       <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="2" t="str">
@@ -2560,7 +2625,7 @@
       <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D30" s="2" t="str">

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/support/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7E6AAC-ED42-2C49-8054-A68248FDF20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE446BB-D85F-3149-863D-AA4B4DE825B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1580" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
+    <workbookView xWindow="3000" yWindow="1580" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
   <sheets>
     <sheet name="modele" sheetId="3" r:id="rId1"/>
@@ -121,90 +121,45 @@
     <t>2025-01-20 08:15</t>
   </si>
   <si>
-    <t>2025-01-22 14:15</t>
-  </si>
-  <si>
     <t>2025-01-27 08:15</t>
   </si>
   <si>
-    <t>2025-01-29 14:15</t>
-  </si>
-  <si>
     <t>2025-02-03 08:15</t>
   </si>
   <si>
-    <t>2025-02-05 14:15</t>
-  </si>
-  <si>
     <t>2025-02-10 08:15</t>
   </si>
   <si>
-    <t>2025-02-12 14:15</t>
-  </si>
-  <si>
     <t>2025-02-17 08:15</t>
   </si>
   <si>
-    <t>2025-02-19 14:15</t>
-  </si>
-  <si>
     <t>2025-02-24 08:15</t>
   </si>
   <si>
-    <t>2025-02-26 14:15</t>
-  </si>
-  <si>
     <t>2025-03-10 08:15</t>
   </si>
   <si>
-    <t>2025-03-12 14:15</t>
-  </si>
-  <si>
     <t>2025-03-17 08:15</t>
   </si>
   <si>
-    <t>2025-03-19 14:15</t>
-  </si>
-  <si>
     <t>2025-03-24 08:15</t>
   </si>
   <si>
-    <t>2025-03-26 14:15</t>
-  </si>
-  <si>
     <t>2025-03-31 08:15</t>
   </si>
   <si>
-    <t>2025-04-02 14:15</t>
-  </si>
-  <si>
     <t>2025-04-07 08:15</t>
   </si>
   <si>
-    <t>2025-04-09 14:15</t>
-  </si>
-  <si>
     <t>2025-04-14 08:15</t>
   </si>
   <si>
-    <t>2025-04-16 14:15</t>
-  </si>
-  <si>
-    <t>2025-04-23 14:15</t>
-  </si>
-  <si>
     <t>2025-04-28 08:15</t>
   </si>
   <si>
-    <t>2025-04-30 14:15</t>
-  </si>
-  <si>
     <t>2025-05-05 08:15</t>
   </si>
   <si>
-    <t>2025-05-07 14:15</t>
-  </si>
-  <si>
     <t>2025-05-12 08:15</t>
   </si>
   <si>
@@ -296,6 +251,51 @@
   </si>
   <si>
     <t>2025-05-12 10:15</t>
+  </si>
+  <si>
+    <t>2025-01-22  15:15</t>
+  </si>
+  <si>
+    <t>2025-01-29  15:15</t>
+  </si>
+  <si>
+    <t>2025-02-05  15:15</t>
+  </si>
+  <si>
+    <t>2025-02-12  15:15</t>
+  </si>
+  <si>
+    <t>2025-02-19  15:15</t>
+  </si>
+  <si>
+    <t>2025-02-26  15:15</t>
+  </si>
+  <si>
+    <t>2025-03-12  15:15</t>
+  </si>
+  <si>
+    <t>2025-03-19  15:15</t>
+  </si>
+  <si>
+    <t>2025-03-26  15:15</t>
+  </si>
+  <si>
+    <t>2025-04-02  15:15</t>
+  </si>
+  <si>
+    <t>2025-04-09  15:15</t>
+  </si>
+  <si>
+    <t>2025-04-16  15:15</t>
+  </si>
+  <si>
+    <t>2025-04-23  15:15</t>
+  </si>
+  <si>
+    <t>2025-04-30  15:15</t>
+  </si>
+  <si>
+    <t>2025-05-07  15:15</t>
   </si>
 </sst>
 </file>
@@ -340,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -349,6 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F171512-FA2B-6E4F-9860-0C907C2F4F1F}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1044,10 +1045,10 @@
         <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1061,10 +1062,10 @@
         <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1212,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10D1181-B3CD-EE43-9E3F-518A899CAD6B}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1251,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>modele!C2</f>
@@ -1274,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>modele!C3</f>
@@ -1297,7 +1298,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>modele!C4</f>
@@ -1320,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>modele!C5</f>
@@ -1343,7 +1344,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>modele!C6</f>
@@ -1366,7 +1367,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>modele!C7</f>
@@ -1389,7 +1390,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>modele!C8</f>
@@ -1412,7 +1413,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>modele!C9</f>
@@ -1435,7 +1436,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>modele!C10</f>
@@ -1458,7 +1459,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>modele!C11</f>
@@ -1481,7 +1482,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>modele!C12</f>
@@ -1504,7 +1505,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>modele!C13</f>
@@ -1527,7 +1528,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>modele!C14</f>
@@ -1550,7 +1551,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="str">
         <f>modele!C15</f>
@@ -1573,7 +1574,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>modele!C16</f>
@@ -1596,7 +1597,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D17" s="2" t="str">
         <f>modele!C17</f>
@@ -1619,7 +1620,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>modele!C18</f>
@@ -1642,7 +1643,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D19" s="2" t="str">
         <f>modele!C19</f>
@@ -1665,7 +1666,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D20" s="2" t="str">
         <f>modele!C20</f>
@@ -1688,7 +1689,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D21" s="2" t="str">
         <f>modele!C21</f>
@@ -1711,7 +1712,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D22" s="2" t="str">
         <f>modele!C22</f>
@@ -1719,11 +1720,11 @@
       </c>
       <c r="E22" s="2" t="str">
         <f>modele!D22</f>
-        <v>Excel</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F22" s="2" t="str">
         <f>modele!E22</f>
-        <v xml:space="preserve"> </v>
+        <v>Simulation de formation (individuel)</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1734,7 +1735,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D23" s="2" t="str">
         <f>modele!C23</f>
@@ -1742,11 +1743,11 @@
       </c>
       <c r="E23" s="2" t="str">
         <f>modele!D23</f>
-        <v xml:space="preserve"> </v>
+        <v>Excel</v>
       </c>
       <c r="F23" s="2" t="str">
         <f>modele!E23</f>
-        <v>Simulation de formation (individuel)</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1757,15 +1758,15 @@
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D24" s="2" t="str">
         <f>modele!C24</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E24" s="2" t="str">
-        <f>modele!D22</f>
-        <v>Excel</v>
+        <f>modele!D24</f>
+        <v>PowerApps</v>
       </c>
       <c r="F24" s="2" t="str">
         <f>modele!E24</f>
@@ -1780,14 +1781,14 @@
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D25" s="2" t="str">
         <f>modele!C25</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E25" s="2" t="str">
-        <f>modele!D24</f>
+        <f>modele!D25</f>
         <v>PowerApps</v>
       </c>
       <c r="F25" s="2" t="str">
@@ -1803,15 +1804,15 @@
         <v>25</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>modele!C26</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E26" s="2" t="str">
-        <f>modele!D25</f>
-        <v>PowerApps</v>
+        <f>modele!D26</f>
+        <v>Excel</v>
       </c>
       <c r="F26" s="2" t="str">
         <f>modele!E26</f>
@@ -1826,7 +1827,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D27" s="2" t="str">
         <f>modele!C27</f>
@@ -1849,7 +1850,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D28" s="2" t="str">
         <f>modele!C28</f>
@@ -1872,7 +1873,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D29" s="2" t="str">
         <f>modele!C29</f>
@@ -1895,7 +1896,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D30" s="2" t="str">
         <f>modele!C30</f>
@@ -1918,7 +1919,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D31" s="2" t="str">
         <f>modele!C31</f>
@@ -1942,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08FFC77-5335-F243-9422-11C9052373E6}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1981,7 +1982,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="str">
@@ -2004,8 +2005,8 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
+      <c r="C3" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>modele!C3</f>
@@ -2027,8 +2028,8 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>28</v>
+      <c r="C4" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>modele!C4</f>
@@ -2050,8 +2051,8 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>29</v>
+      <c r="C5" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>modele!C5</f>
@@ -2073,8 +2074,8 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>modele!C6</f>
@@ -2096,8 +2097,8 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>31</v>
+      <c r="C7" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>modele!C7</f>
@@ -2119,8 +2120,8 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>32</v>
+      <c r="C8" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>modele!C8</f>
@@ -2142,8 +2143,8 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>33</v>
+      <c r="C9" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>modele!C9</f>
@@ -2165,8 +2166,8 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>34</v>
+      <c r="C10" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>modele!C10</f>
@@ -2188,8 +2189,8 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>35</v>
+      <c r="C11" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>modele!C11</f>
@@ -2211,8 +2212,8 @@
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>36</v>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>modele!C12</f>
@@ -2234,8 +2235,8 @@
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>37</v>
+      <c r="C13" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>modele!C13</f>
@@ -2257,8 +2258,8 @@
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>38</v>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>modele!C14</f>
@@ -2280,8 +2281,8 @@
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>39</v>
+      <c r="C15" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="D15" s="2" t="str">
         <f>modele!C15</f>
@@ -2303,8 +2304,8 @@
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>40</v>
+      <c r="C16" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>modele!C16</f>
@@ -2326,8 +2327,8 @@
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>41</v>
+      <c r="C17" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D17" s="2" t="str">
         <f>modele!C17</f>
@@ -2349,8 +2350,8 @@
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>42</v>
+      <c r="C18" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>modele!C18</f>
@@ -2372,8 +2373,8 @@
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>43</v>
+      <c r="C19" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D19" s="2" t="str">
         <f>modele!C19</f>
@@ -2395,8 +2396,8 @@
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>44</v>
+      <c r="C20" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="D20" s="2" t="str">
         <f>modele!C20</f>
@@ -2418,8 +2419,8 @@
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>45</v>
+      <c r="C21" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="D21" s="2" t="str">
         <f>modele!C21</f>
@@ -2441,8 +2442,8 @@
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>46</v>
+      <c r="C22" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="str">
         <f>modele!C22</f>
@@ -2450,11 +2451,11 @@
       </c>
       <c r="E22" s="2" t="str">
         <f>modele!D22</f>
-        <v>Excel</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F22" s="2" t="str">
         <f>modele!E22</f>
-        <v xml:space="preserve"> </v>
+        <v>Simulation de formation (individuel)</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2464,8 +2465,8 @@
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>47</v>
+      <c r="C23" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="D23" s="2" t="str">
         <f>modele!C23</f>
@@ -2473,11 +2474,11 @@
       </c>
       <c r="E23" s="2" t="str">
         <f>modele!D23</f>
-        <v xml:space="preserve"> </v>
+        <v>Excel</v>
       </c>
       <c r="F23" s="2" t="str">
         <f>modele!E23</f>
-        <v>Simulation de formation (individuel)</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2487,16 +2488,16 @@
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>48</v>
+      <c r="C24" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="str">
         <f>modele!C24</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E24" s="2" t="str">
-        <f>modele!D22</f>
-        <v>Excel</v>
+        <f>modele!D24</f>
+        <v>PowerApps</v>
       </c>
       <c r="F24" s="2" t="str">
         <f>modele!E24</f>
@@ -2510,8 +2511,8 @@
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>49</v>
+      <c r="C25" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="D25" s="2" t="str">
         <f>modele!C25</f>
@@ -2533,8 +2534,8 @@
       <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>50</v>
+      <c r="C26" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>modele!C26</f>
@@ -2556,8 +2557,8 @@
       <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>51</v>
+      <c r="C27" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="2" t="str">
         <f>modele!C27</f>
@@ -2579,8 +2580,8 @@
       <c r="B28">
         <v>27</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>52</v>
+      <c r="C28" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="D28" s="2" t="str">
         <f>modele!C28</f>
@@ -2602,8 +2603,8 @@
       <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>53</v>
+      <c r="C29" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="D29" s="2" t="str">
         <f>modele!C29</f>
@@ -2625,8 +2626,8 @@
       <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>54</v>
+      <c r="C30" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="D30" s="2" t="str">
         <f>modele!C30</f>
@@ -2648,8 +2649,8 @@
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>55</v>
+      <c r="C31" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="D31" s="2" t="str">
         <f>modele!C31</f>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/support/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE446BB-D85F-3149-863D-AA4B4DE825B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9836302-E07E-714C-8D5B-44E35708243F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1580" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
+    <workbookView xWindow="3000" yWindow="1580" windowWidth="27240" windowHeight="16440" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
   <sheets>
     <sheet name="modele" sheetId="3" r:id="rId1"/>
@@ -100,18 +100,12 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Plan de cours &lt;br/&gt;[Résolution de problèmes](resolution-probleme.md)&lt;br/&gt;[Introduction apprentissage par problème](apprentissage-probleme.md) &lt;br/&gt;[Formation des équipes pour la session](formation-equipes.md)</t>
-  </si>
-  <si>
     <t>Évaluation formative formelle</t>
   </si>
   <si>
     <t>[Niveaux de service](niveaux-service.md)</t>
   </si>
   <si>
-    <t>[Billeterie](billeterie.md) + [niveaux de priorités](niveaux-priorites.md) + [Types d'utilisateurs](types-utilisateurs.md)</t>
-  </si>
-  <si>
     <t>[Comment faire un document d'aide](document-aide.md)</t>
   </si>
   <si>
@@ -296,6 +290,12 @@
   </si>
   <si>
     <t>2025-05-07  15:15</t>
+  </si>
+  <si>
+    <t>[niveaux de priorités](niveaux-priorites.md) &lt;br/&gt; [Types d'utilisateurs](types-utilisateurs.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan de cours &lt;br/&gt;[Résolution de problèmes](resolution-probleme.md)&lt;br/&gt;[Introduction apprentissage par problème](apprentissage-probleme.md) &lt;br/&gt;[Formation des équipes pour la session](formation-equipes.md)&lt;br/&gt;[Billeterie](billeterie.md) </t>
   </si>
 </sst>
 </file>
@@ -340,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -350,6 +350,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F171512-FA2B-6E4F-9860-0C907C2F4F1F}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -694,7 +697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -702,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -718,8 +721,8 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
+      <c r="C3" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -742,7 +745,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -770,7 +773,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
@@ -804,7 +807,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
@@ -889,7 +892,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>19</v>
@@ -1252,11 +1255,11 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>modele!C2</f>
-        <v>Plan de cours &lt;br/&gt;[Résolution de problèmes](resolution-probleme.md)&lt;br/&gt;[Introduction apprentissage par problème](apprentissage-probleme.md) &lt;br/&gt;[Formation des équipes pour la session](formation-equipes.md)</v>
+        <v xml:space="preserve">Plan de cours &lt;br/&gt;[Résolution de problèmes](resolution-probleme.md)&lt;br/&gt;[Introduction apprentissage par problème](apprentissage-probleme.md) &lt;br/&gt;[Formation des équipes pour la session](formation-equipes.md)&lt;br/&gt;[Billeterie](billeterie.md) </v>
       </c>
       <c r="E2" s="2" t="str">
         <f>modele!D2</f>
@@ -1275,11 +1278,11 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>modele!C3</f>
-        <v>[Billeterie](billeterie.md) + [niveaux de priorités](niveaux-priorites.md) + [Types d'utilisateurs](types-utilisateurs.md)</v>
+        <v>[niveaux de priorités](niveaux-priorites.md) &lt;br/&gt; [Types d'utilisateurs](types-utilisateurs.md)</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>modele!D3</f>
@@ -1298,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>modele!C4</f>
@@ -1321,7 +1324,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>modele!C5</f>
@@ -1344,7 +1347,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>modele!C6</f>
@@ -1367,7 +1370,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>modele!C7</f>
@@ -1390,7 +1393,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>modele!C8</f>
@@ -1413,7 +1416,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>modele!C9</f>
@@ -1436,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>modele!C10</f>
@@ -1459,7 +1462,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>modele!C11</f>
@@ -1482,7 +1485,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>modele!C12</f>
@@ -1505,7 +1508,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>modele!C13</f>
@@ -1528,7 +1531,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>modele!C14</f>
@@ -1551,7 +1554,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="str">
         <f>modele!C15</f>
@@ -1574,7 +1577,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>modele!C16</f>
@@ -1597,7 +1600,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="str">
         <f>modele!C17</f>
@@ -1620,7 +1623,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>modele!C18</f>
@@ -1643,7 +1646,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2" t="str">
         <f>modele!C19</f>
@@ -1666,7 +1669,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="2" t="str">
         <f>modele!C20</f>
@@ -1689,7 +1692,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" s="2" t="str">
         <f>modele!C21</f>
@@ -1712,7 +1715,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="2" t="str">
         <f>modele!C22</f>
@@ -1735,7 +1738,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2" t="str">
         <f>modele!C23</f>
@@ -1758,7 +1761,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24" s="2" t="str">
         <f>modele!C24</f>
@@ -1781,7 +1784,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D25" s="2" t="str">
         <f>modele!C25</f>
@@ -1804,7 +1807,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>modele!C26</f>
@@ -1827,7 +1830,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2" t="str">
         <f>modele!C27</f>
@@ -1850,7 +1853,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="2" t="str">
         <f>modele!C28</f>
@@ -1873,7 +1876,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D29" s="2" t="str">
         <f>modele!C29</f>
@@ -1896,7 +1899,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30" s="2" t="str">
         <f>modele!C30</f>
@@ -1919,7 +1922,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D31" s="2" t="str">
         <f>modele!C31</f>
@@ -1943,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08FFC77-5335-F243-9422-11C9052373E6}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1983,11 +1986,11 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>modele!C2</f>
-        <v>Plan de cours &lt;br/&gt;[Résolution de problèmes](resolution-probleme.md)&lt;br/&gt;[Introduction apprentissage par problème](apprentissage-probleme.md) &lt;br/&gt;[Formation des équipes pour la session](formation-equipes.md)</v>
+        <v xml:space="preserve">Plan de cours &lt;br/&gt;[Résolution de problèmes](resolution-probleme.md)&lt;br/&gt;[Introduction apprentissage par problème](apprentissage-probleme.md) &lt;br/&gt;[Formation des équipes pour la session](formation-equipes.md)&lt;br/&gt;[Billeterie](billeterie.md) </v>
       </c>
       <c r="E2" s="2" t="str">
         <f>modele!D2</f>
@@ -2006,11 +2009,11 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>modele!C3</f>
-        <v>[Billeterie](billeterie.md) + [niveaux de priorités](niveaux-priorites.md) + [Types d'utilisateurs](types-utilisateurs.md)</v>
+        <v>[niveaux de priorités](niveaux-priorites.md) &lt;br/&gt; [Types d'utilisateurs](types-utilisateurs.md)</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>modele!D3</f>
@@ -2029,7 +2032,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>modele!C4</f>
@@ -2052,7 +2055,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>modele!C5</f>
@@ -2075,7 +2078,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>modele!C6</f>
@@ -2098,7 +2101,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>modele!C7</f>
@@ -2121,7 +2124,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>modele!C8</f>
@@ -2144,7 +2147,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>modele!C9</f>
@@ -2167,7 +2170,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>modele!C10</f>
@@ -2190,7 +2193,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>modele!C11</f>
@@ -2213,7 +2216,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>modele!C12</f>
@@ -2236,7 +2239,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>modele!C13</f>
@@ -2259,7 +2262,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>modele!C14</f>
@@ -2282,7 +2285,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2" t="str">
         <f>modele!C15</f>
@@ -2305,7 +2308,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>modele!C16</f>
@@ -2328,7 +2331,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2" t="str">
         <f>modele!C17</f>
@@ -2351,7 +2354,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>modele!C18</f>
@@ -2374,7 +2377,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2" t="str">
         <f>modele!C19</f>
@@ -2397,7 +2400,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="str">
         <f>modele!C20</f>
@@ -2420,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2" t="str">
         <f>modele!C21</f>
@@ -2443,7 +2446,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2" t="str">
         <f>modele!C22</f>
@@ -2466,7 +2469,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2" t="str">
         <f>modele!C23</f>
@@ -2489,7 +2492,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2" t="str">
         <f>modele!C24</f>
@@ -2512,7 +2515,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D25" s="2" t="str">
         <f>modele!C25</f>
@@ -2535,7 +2538,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>modele!C26</f>
@@ -2558,7 +2561,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D27" s="2" t="str">
         <f>modele!C27</f>
@@ -2581,7 +2584,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D28" s="2" t="str">
         <f>modele!C28</f>
@@ -2604,7 +2607,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2" t="str">
         <f>modele!C29</f>
@@ -2627,7 +2630,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D30" s="2" t="str">
         <f>modele!C30</f>
@@ -2650,7 +2653,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D31" s="2" t="str">
         <f>modele!C31</f>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/support/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9836302-E07E-714C-8D5B-44E35708243F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D77FFC-8D5A-724A-9C01-670EA4BC6B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="1580" windowWidth="27240" windowHeight="16440" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
@@ -292,10 +292,10 @@
     <t>2025-05-07  15:15</t>
   </si>
   <si>
-    <t>[niveaux de priorités](niveaux-priorites.md) &lt;br/&gt; [Types d'utilisateurs](types-utilisateurs.md)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plan de cours &lt;br/&gt;[Résolution de problèmes](resolution-probleme.md)&lt;br/&gt;[Introduction apprentissage par problème](apprentissage-probleme.md) &lt;br/&gt;[Formation des équipes pour la session](formation-equipes.md)&lt;br/&gt;[Billeterie](billeterie.md) </t>
+  </si>
+  <si>
+    <t>[Niveaux de priorités](niveaux-priorites.md) &lt;br/&gt; [Types d'utilisateurs](types-utilisateurs.md)</t>
   </si>
 </sst>
 </file>
@@ -670,7 +670,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -1247,7 +1247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="D3" s="2" t="str">
         <f>modele!C3</f>
-        <v>[niveaux de priorités](niveaux-priorites.md) &lt;br/&gt; [Types d'utilisateurs](types-utilisateurs.md)</v>
+        <v>[Niveaux de priorités](niveaux-priorites.md) &lt;br/&gt; [Types d'utilisateurs](types-utilisateurs.md)</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>modele!D3</f>
@@ -1978,7 +1978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D3" s="2" t="str">
         <f>modele!C3</f>
-        <v>[niveaux de priorités](niveaux-priorites.md) &lt;br/&gt; [Types d'utilisateurs](types-utilisateurs.md)</v>
+        <v>[Niveaux de priorités](niveaux-priorites.md) &lt;br/&gt; [Types d'utilisateurs](types-utilisateurs.md)</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>modele!D3</f>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/support/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D77FFC-8D5A-724A-9C01-670EA4BC6B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC9F858-8723-954D-A0A8-CDB3D7B7EF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="1580" windowWidth="27240" windowHeight="16440" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>Évaluation</t>
   </si>
   <si>
-    <t>Comment chiffrer un courriel dans Outlook</t>
-  </si>
-  <si>
     <t>Billets</t>
   </si>
   <si>
@@ -296,6 +293,9 @@
   </si>
   <si>
     <t>[Niveaux de priorités](niveaux-priorites.md) &lt;br/&gt; [Types d'utilisateurs](types-utilisateurs.md)</t>
+  </si>
+  <si>
+    <t>Comment ajouter un add-on en Word</t>
   </si>
 </sst>
 </file>
@@ -670,7 +670,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -691,7 +691,7 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -705,13 +705,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -722,13 +722,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -739,13 +739,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -756,13 +756,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -773,13 +773,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -790,13 +790,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -807,13 +807,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -824,13 +824,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -841,13 +841,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -858,13 +858,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -875,13 +875,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -892,13 +892,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -909,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -926,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -943,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -960,13 +960,13 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -977,13 +977,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -994,13 +994,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1011,10 +1011,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
@@ -1028,10 +1028,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1062,13 +1062,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1079,13 +1079,13 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1096,13 +1096,13 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1113,13 +1113,13 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1130,13 +1130,13 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1150,10 +1150,10 @@
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1164,10 +1164,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>6</v>
@@ -1181,10 +1181,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -1198,10 +1198,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -1241,7 +1241,7 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
@@ -1255,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>modele!C2</f>
@@ -1278,7 +1278,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>modele!C3</f>
@@ -1301,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>modele!C4</f>
@@ -1324,7 +1324,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>modele!C5</f>
@@ -1347,7 +1347,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>modele!C6</f>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="F6" s="2" t="str">
         <f>modele!E6</f>
-        <v>Comment chiffrer un courriel dans Outlook</v>
+        <v>Comment ajouter un add-on en Word</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1370,7 +1370,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>modele!C7</f>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="F7" s="2" t="str">
         <f>modele!E7</f>
-        <v>Comment chiffrer un courriel dans Outlook</v>
+        <v>Comment ajouter un add-on en Word</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1393,7 +1393,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>modele!C8</f>
@@ -1416,7 +1416,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>modele!C9</f>
@@ -1439,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>modele!C10</f>
@@ -1462,7 +1462,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>modele!C11</f>
@@ -1485,7 +1485,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>modele!C12</f>
@@ -1508,7 +1508,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>modele!C13</f>
@@ -1531,7 +1531,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>modele!C14</f>
@@ -1554,7 +1554,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="str">
         <f>modele!C15</f>
@@ -1577,7 +1577,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>modele!C16</f>
@@ -1600,7 +1600,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2" t="str">
         <f>modele!C17</f>
@@ -1623,7 +1623,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>modele!C18</f>
@@ -1646,7 +1646,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2" t="str">
         <f>modele!C19</f>
@@ -1669,7 +1669,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="2" t="str">
         <f>modele!C20</f>
@@ -1692,7 +1692,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="2" t="str">
         <f>modele!C21</f>
@@ -1715,7 +1715,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2" t="str">
         <f>modele!C22</f>
@@ -1738,7 +1738,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2" t="str">
         <f>modele!C23</f>
@@ -1761,7 +1761,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2" t="str">
         <f>modele!C24</f>
@@ -1784,7 +1784,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2" t="str">
         <f>modele!C25</f>
@@ -1807,7 +1807,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>modele!C26</f>
@@ -1830,7 +1830,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" s="2" t="str">
         <f>modele!C27</f>
@@ -1853,7 +1853,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="2" t="str">
         <f>modele!C28</f>
@@ -1876,7 +1876,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" s="2" t="str">
         <f>modele!C29</f>
@@ -1899,7 +1899,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" s="2" t="str">
         <f>modele!C30</f>
@@ -1922,7 +1922,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="2" t="str">
         <f>modele!C31</f>
@@ -1972,7 +1972,7 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
@@ -1986,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>modele!C2</f>
@@ -2009,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>modele!C3</f>
@@ -2032,7 +2032,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>modele!C4</f>
@@ -2055,7 +2055,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>modele!C5</f>
@@ -2078,7 +2078,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>modele!C6</f>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="F6" s="2" t="str">
         <f>modele!E6</f>
-        <v>Comment chiffrer un courriel dans Outlook</v>
+        <v>Comment ajouter un add-on en Word</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2101,7 +2101,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>modele!C7</f>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="F7" s="2" t="str">
         <f>modele!E7</f>
-        <v>Comment chiffrer un courriel dans Outlook</v>
+        <v>Comment ajouter un add-on en Word</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2124,7 +2124,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>modele!C8</f>
@@ -2147,7 +2147,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>modele!C9</f>
@@ -2170,7 +2170,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>modele!C10</f>
@@ -2193,7 +2193,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>modele!C11</f>
@@ -2216,7 +2216,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>modele!C12</f>
@@ -2239,7 +2239,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>modele!C13</f>
@@ -2262,7 +2262,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>modele!C14</f>
@@ -2285,7 +2285,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2" t="str">
         <f>modele!C15</f>
@@ -2308,7 +2308,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>modele!C16</f>
@@ -2331,7 +2331,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="2" t="str">
         <f>modele!C17</f>
@@ -2354,7 +2354,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>modele!C18</f>
@@ -2377,7 +2377,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" s="2" t="str">
         <f>modele!C19</f>
@@ -2400,7 +2400,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2" t="str">
         <f>modele!C20</f>
@@ -2423,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2" t="str">
         <f>modele!C21</f>
@@ -2446,7 +2446,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="str">
         <f>modele!C22</f>
@@ -2469,7 +2469,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2" t="str">
         <f>modele!C23</f>
@@ -2492,7 +2492,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2" t="str">
         <f>modele!C24</f>
@@ -2515,7 +2515,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2" t="str">
         <f>modele!C25</f>
@@ -2538,7 +2538,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>modele!C26</f>
@@ -2561,7 +2561,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2" t="str">
         <f>modele!C27</f>
@@ -2584,7 +2584,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="2" t="str">
         <f>modele!C28</f>
@@ -2607,7 +2607,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2" t="str">
         <f>modele!C29</f>
@@ -2630,7 +2630,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D30" s="2" t="str">
         <f>modele!C30</f>
@@ -2653,7 +2653,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2" t="str">
         <f>modele!C31</f>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/support/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC9F858-8723-954D-A0A8-CDB3D7B7EF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F1C47A-53CB-9B4A-B0DC-99F37984C2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="1580" windowWidth="27240" windowHeight="16440" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>Comment ajouter un add-on en Word</t>
+  </si>
+  <si>
+    <t>**Pas de cours - Absence médicale**</t>
   </si>
 </sst>
 </file>
@@ -669,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F171512-FA2B-6E4F-9860-0C907C2F4F1F}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1096,7 +1099,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>4</v>
@@ -1788,7 +1791,7 @@
       </c>
       <c r="D25" s="2" t="str">
         <f>modele!C25</f>
-        <v xml:space="preserve"> </v>
+        <v>**Pas de cours - Absence médicale**</v>
       </c>
       <c r="E25" s="2" t="str">
         <f>modele!D25</f>
@@ -2519,7 +2522,7 @@
       </c>
       <c r="D25" s="2" t="str">
         <f>modele!C25</f>
-        <v xml:space="preserve"> </v>
+        <v>**Pas de cours - Absence médicale**</v>
       </c>
       <c r="E25" s="2" t="str">
         <f>modele!D24</f>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/support/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F1C47A-53CB-9B4A-B0DC-99F37984C2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C754A1-29F9-8146-ABD6-14446F1140B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1580" windowWidth="27240" windowHeight="16440" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
+    <workbookView xWindow="3000" yWindow="1580" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
   <sheets>
     <sheet name="modele" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -154,96 +154,6 @@
     <t>2025-05-12 08:15</t>
   </si>
   <si>
-    <t>2025-01-20 10:15</t>
-  </si>
-  <si>
-    <t>2025-01-22 12:15</t>
-  </si>
-  <si>
-    <t>2025-01-27 10:15</t>
-  </si>
-  <si>
-    <t>2025-01-29 12:15</t>
-  </si>
-  <si>
-    <t>2025-02-03 10:15</t>
-  </si>
-  <si>
-    <t>2025-02-05 12:15</t>
-  </si>
-  <si>
-    <t>2025-02-10 10:15</t>
-  </si>
-  <si>
-    <t>2025-02-12 12:15</t>
-  </si>
-  <si>
-    <t>2025-02-17 10:15</t>
-  </si>
-  <si>
-    <t>2025-02-19 12:15</t>
-  </si>
-  <si>
-    <t>2025-02-24 10:15</t>
-  </si>
-  <si>
-    <t>2025-02-26 12:15</t>
-  </si>
-  <si>
-    <t>2025-03-10 10:15</t>
-  </si>
-  <si>
-    <t>2025-03-12 12:15</t>
-  </si>
-  <si>
-    <t>2025-03-17 10:15</t>
-  </si>
-  <si>
-    <t>2025-03-19 12:15</t>
-  </si>
-  <si>
-    <t>2025-03-24 10:15</t>
-  </si>
-  <si>
-    <t>2025-03-26 12:15</t>
-  </si>
-  <si>
-    <t>2025-03-31 10:15</t>
-  </si>
-  <si>
-    <t>2025-04-02 12:15</t>
-  </si>
-  <si>
-    <t>2025-04-07 10:15</t>
-  </si>
-  <si>
-    <t>2025-04-09 12:15</t>
-  </si>
-  <si>
-    <t>2025-04-14 10:15</t>
-  </si>
-  <si>
-    <t>2025-04-16 12:15</t>
-  </si>
-  <si>
-    <t>2025-04-23 12:15</t>
-  </si>
-  <si>
-    <t>2025-04-28 10:15</t>
-  </si>
-  <si>
-    <t>2025-04-30 12:15</t>
-  </si>
-  <si>
-    <t>2025-05-05 10:15</t>
-  </si>
-  <si>
-    <t>2025-05-07 12:15</t>
-  </si>
-  <si>
-    <t>2025-05-12 10:15</t>
-  </si>
-  <si>
     <t>2025-01-22  15:15</t>
   </si>
   <si>
@@ -296,9 +206,6 @@
   </si>
   <si>
     <t>Comment ajouter un add-on en Word</t>
-  </si>
-  <si>
-    <t>**Pas de cours - Absence médicale**</t>
   </si>
 </sst>
 </file>
@@ -322,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -339,11 +246,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -351,11 +278,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F171512-FA2B-6E4F-9860-0C907C2F4F1F}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -708,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -724,8 +652,8 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>84</v>
+      <c r="C3" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -782,7 +710,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -799,7 +727,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1098,9 +1026,7 @@
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1219,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10D1181-B3CD-EE43-9E3F-518A899CAD6B}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1257,8 +1183,8 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>38</v>
+      <c r="C2" s="7">
+        <v>46038.552083333336</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>modele!C2</f>
@@ -1280,8 +1206,8 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>39</v>
+      <c r="C3" s="7">
+        <v>46041.635416666664</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>modele!C3</f>
@@ -1303,8 +1229,8 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>40</v>
+      <c r="C4" s="7">
+        <v>46045.552083333336</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>modele!C4</f>
@@ -1326,8 +1252,8 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>41</v>
+      <c r="C5" s="7">
+        <v>46048.635416666664</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>modele!C5</f>
@@ -1349,8 +1275,8 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>42</v>
+      <c r="C6" s="7">
+        <v>46052.552083333336</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>modele!C6</f>
@@ -1372,8 +1298,8 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>43</v>
+      <c r="C7" s="7">
+        <v>46055.635416666664</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>modele!C7</f>
@@ -1395,8 +1321,8 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>44</v>
+      <c r="C8" s="7">
+        <v>46059.552083333336</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>modele!C8</f>
@@ -1418,8 +1344,8 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>45</v>
+      <c r="C9" s="7">
+        <v>46062.635416666664</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>modele!C9</f>
@@ -1441,8 +1367,8 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>46</v>
+      <c r="C10" s="7">
+        <v>46066.552083333336</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>modele!C10</f>
@@ -1464,8 +1390,8 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>47</v>
+      <c r="C11" s="7">
+        <v>46069.635416666664</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>modele!C11</f>
@@ -1487,8 +1413,8 @@
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>48</v>
+      <c r="C12" s="7">
+        <v>46073.552083333336</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>modele!C12</f>
@@ -1510,8 +1436,8 @@
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>49</v>
+      <c r="C13" s="7">
+        <v>46076.635416666664</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>modele!C13</f>
@@ -1533,8 +1459,8 @@
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>50</v>
+      <c r="C14" s="7">
+        <v>46080.552083333336</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>modele!C14</f>
@@ -1556,8 +1482,8 @@
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>51</v>
+      <c r="C15" s="7">
+        <v>46090.635416666664</v>
       </c>
       <c r="D15" s="2" t="str">
         <f>modele!C15</f>
@@ -1579,8 +1505,8 @@
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>52</v>
+      <c r="C16" s="7">
+        <v>46094.552083333336</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>modele!C16</f>
@@ -1602,8 +1528,8 @@
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>53</v>
+      <c r="C17" s="7">
+        <v>46097.635416666664</v>
       </c>
       <c r="D17" s="2" t="str">
         <f>modele!C17</f>
@@ -1625,8 +1551,8 @@
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>54</v>
+      <c r="C18" s="7">
+        <v>46101.552083333336</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>modele!C18</f>
@@ -1648,8 +1574,8 @@
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>55</v>
+      <c r="C19" s="7">
+        <v>46104.635416666664</v>
       </c>
       <c r="D19" s="2" t="str">
         <f>modele!C19</f>
@@ -1671,8 +1597,8 @@
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>56</v>
+      <c r="C20" s="7">
+        <v>46111.635416666664</v>
       </c>
       <c r="D20" s="2" t="str">
         <f>modele!C20</f>
@@ -1694,8 +1620,8 @@
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>57</v>
+      <c r="C21" s="7">
+        <v>46122.552083333336</v>
       </c>
       <c r="D21" s="2" t="str">
         <f>modele!C21</f>
@@ -1717,8 +1643,8 @@
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>58</v>
+      <c r="C22" s="7">
+        <v>46125.635416666664</v>
       </c>
       <c r="D22" s="2" t="str">
         <f>modele!C22</f>
@@ -1740,8 +1666,8 @@
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>59</v>
+      <c r="C23" s="7">
+        <v>46129.552083333336</v>
       </c>
       <c r="D23" s="2" t="str">
         <f>modele!C23</f>
@@ -1763,8 +1689,8 @@
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>60</v>
+      <c r="C24" s="7">
+        <v>46132.635416666664</v>
       </c>
       <c r="D24" s="2" t="str">
         <f>modele!C24</f>
@@ -1786,12 +1712,12 @@
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="2" t="str">
+      <c r="C25" s="7">
+        <v>46135.552083333336</v>
+      </c>
+      <c r="D25" s="2">
         <f>modele!C25</f>
-        <v>**Pas de cours - Absence médicale**</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2" t="str">
         <f>modele!D25</f>
@@ -1809,8 +1735,8 @@
       <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>62</v>
+      <c r="C26" s="7">
+        <v>46139.635416666664</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>modele!C26</f>
@@ -1832,8 +1758,8 @@
       <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>63</v>
+      <c r="C27" s="7">
+        <v>46140.552083333336</v>
       </c>
       <c r="D27" s="2" t="str">
         <f>modele!C27</f>
@@ -1855,8 +1781,8 @@
       <c r="B28">
         <v>27</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>64</v>
+      <c r="C28" s="7">
+        <v>46146.635416666664</v>
       </c>
       <c r="D28" s="2" t="str">
         <f>modele!C28</f>
@@ -1878,8 +1804,8 @@
       <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>65</v>
+      <c r="C29" s="7">
+        <v>46150.552083333336</v>
       </c>
       <c r="D29" s="2" t="str">
         <f>modele!C29</f>
@@ -1901,8 +1827,8 @@
       <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>66</v>
+      <c r="C30" s="7">
+        <v>46153.635416666664</v>
       </c>
       <c r="D30" s="2" t="str">
         <f>modele!C30</f>
@@ -1924,8 +1850,8 @@
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>67</v>
+      <c r="C31" s="8">
+        <v>46157.552083333336</v>
       </c>
       <c r="D31" s="2" t="str">
         <f>modele!C31</f>
@@ -1988,7 +1914,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="str">
@@ -2011,8 +1937,8 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>68</v>
+      <c r="C3" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>modele!C3</f>
@@ -2034,7 +1960,7 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="str">
@@ -2057,8 +1983,8 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>69</v>
+      <c r="C5" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>modele!C5</f>
@@ -2080,7 +2006,7 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="2" t="str">
@@ -2103,8 +2029,8 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>70</v>
+      <c r="C7" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>modele!C7</f>
@@ -2126,7 +2052,7 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="2" t="str">
@@ -2149,8 +2075,8 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>71</v>
+      <c r="C9" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>modele!C9</f>
@@ -2172,7 +2098,7 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2" t="str">
@@ -2195,8 +2121,8 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>72</v>
+      <c r="C11" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>modele!C11</f>
@@ -2218,7 +2144,7 @@
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="2" t="str">
@@ -2241,8 +2167,8 @@
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>73</v>
+      <c r="C13" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>modele!C13</f>
@@ -2264,7 +2190,7 @@
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="2" t="str">
@@ -2287,8 +2213,8 @@
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>74</v>
+      <c r="C15" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D15" s="2" t="str">
         <f>modele!C15</f>
@@ -2310,7 +2236,7 @@
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="2" t="str">
@@ -2333,8 +2259,8 @@
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>75</v>
+      <c r="C17" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D17" s="2" t="str">
         <f>modele!C17</f>
@@ -2356,7 +2282,7 @@
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="2" t="str">
@@ -2379,8 +2305,8 @@
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>76</v>
+      <c r="C19" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="D19" s="2" t="str">
         <f>modele!C19</f>
@@ -2402,7 +2328,7 @@
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="str">
@@ -2425,8 +2351,8 @@
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>77</v>
+      <c r="C21" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D21" s="2" t="str">
         <f>modele!C21</f>
@@ -2448,7 +2374,7 @@
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="2" t="str">
@@ -2471,8 +2397,8 @@
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>78</v>
+      <c r="C23" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D23" s="2" t="str">
         <f>modele!C23</f>
@@ -2494,7 +2420,7 @@
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="2" t="str">
@@ -2517,12 +2443,12 @@
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="2" t="str">
+      <c r="C25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="2">
         <f>modele!C25</f>
-        <v>**Pas de cours - Absence médicale**</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2" t="str">
         <f>modele!D24</f>
@@ -2540,8 +2466,8 @@
       <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>80</v>
+      <c r="C26" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>modele!C26</f>
@@ -2563,7 +2489,7 @@
       <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="2" t="str">
@@ -2586,8 +2512,8 @@
       <c r="B28">
         <v>27</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>81</v>
+      <c r="C28" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="D28" s="2" t="str">
         <f>modele!C28</f>
@@ -2609,7 +2535,7 @@
       <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="2" t="str">
@@ -2632,8 +2558,8 @@
       <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>82</v>
+      <c r="C30" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D30" s="2" t="str">
         <f>modele!C30</f>
@@ -2655,7 +2581,7 @@
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="2" t="str">
